--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560566.177320853</v>
+        <v>2558020.991247568</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>230.0681405859384</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.91242278797893</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>85.78096405722445</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.5687190723337</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>139.9164830972601</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.31590541686237</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>61.32905684098861</v>
+        <v>28.71992904841888</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.58515663460762</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>81.88514173186341</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.05480806223644</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>34.44192933414612</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505369</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>18.16423677622432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>76.28317487965496</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333688</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057983</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.981643776797</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1177.981643776797</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>766.9957389871895</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757142</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.54400078133</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.5758555962227</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="C4" t="n">
-        <v>322.5758555962227</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="D4" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X4" t="n">
-        <v>322.5758555962227</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y4" t="n">
-        <v>322.5758555962227</v>
+        <v>70.0161361516563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491377</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221263</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.14692331494</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.1640758398986</v>
+        <v>1306.645299038032</v>
       </c>
       <c r="C8" t="n">
-        <v>432.2015588994869</v>
+        <v>937.6827820976202</v>
       </c>
       <c r="D8" t="n">
-        <v>73.93586029273639</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273639</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353292</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374774</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
         <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>593.4635795439088</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.181390527221</v>
+        <v>897.2530574599469</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587067</v>
+        <v>1524.560725519794</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2071.721930286871</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.200548754597</v>
+        <v>2668.139061676385</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.200548754597</v>
+        <v>2668.139061676385</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.200548754597</v>
+        <v>2414.447358421536</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.137661411026</v>
+        <v>2083.384471077965</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.369006140912</v>
+        <v>2083.384471077965</v>
       </c>
       <c r="X8" t="n">
-        <v>1577.903247879832</v>
+        <v>2083.384471077965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.76391590402</v>
+        <v>1693.245139102154</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>990.6603333457621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>821.7241504178552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>671.6075110055194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>523.6944174231263</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>376.804469925216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>971.1653989040896</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>745.5362022164545</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3403484614391</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4041655335323</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614391</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.6979859831846</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>924.6979859831846</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>774.5813465708488</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>626.6682529884557</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>479.7783054905453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>312.5822062054253</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>170.8703750476234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1106.346450813424</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>299.3884215296117</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>272.2392673807316</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>378.0407240669644</v>
+        <v>312.5708431852133</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.761884095931661e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.32043864788521</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>114.1735436840662</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>268.0202376130198</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.982661438910569</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187579</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564403</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.6147597544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597546</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.53656668277</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682771</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682754</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682725</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682721</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682703</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183767</v>
+        <v>343525.8781183768</v>
       </c>
       <c r="D6" t="n">
         <v>187722.0720245821</v>
       </c>
       <c r="E6" t="n">
-        <v>-252314.1430116414</v>
+        <v>-252348.8809370771</v>
       </c>
       <c r="F6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="G6" t="n">
-        <v>518738.5483691648</v>
+        <v>518703.8104437294</v>
       </c>
       <c r="H6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="I6" t="n">
-        <v>518738.5483691651</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="J6" t="n">
-        <v>342315.3291765716</v>
+        <v>342280.5912511362</v>
       </c>
       <c r="K6" t="n">
-        <v>518738.5483691648</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="L6" t="n">
-        <v>518738.5483691646</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="M6" t="n">
-        <v>394530.0376611061</v>
+        <v>394495.2997356707</v>
       </c>
       <c r="N6" t="n">
-        <v>518738.5483691651</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="O6" t="n">
-        <v>518738.548369165</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="P6" t="n">
-        <v>518738.5483691648</v>
+        <v>518703.810443729</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.142112354499564e-15</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>183.7160294348566</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>132.7030502302334</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>70.3899247845707</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.36165099992803</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>229.8146175812089</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>130.8549834249328</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647188</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>93.32383028715157</v>
+        <v>125.9329580797213</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.2468235473297</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>123.4807401682552</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.55795384873636e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198378</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359103</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>440.1244375308776</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>384.0921211681322</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>559.3511648291915</v>
+        <v>493.8812839474404</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36595,10 +36595,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317107</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>235.501032152577</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37552,7 +37552,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
